--- a/Output.xlsx
+++ b/Output.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1551b3744a113d45/Documents/UiPath/Robotic_Process_Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AC075F2-9F1F-41A4-B6F7-9FAF5584512D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{7AC075F2-9F1F-41A4-B6F7-9FAF5584512D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8FDE3EDE-90C9-4953-94A0-C30805E1E811}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{3A28934A-972A-4B86-9E4B-9B9EF184AD0A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="REPORT" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,6 +31,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>3. For the days selected in step two, identify all emails which denote a change detected. Open each email and ensure the details within (e.g. each change is captured within the monthly tracker (findings tab).</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -378,10 +387,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4602C9DE-E17E-477F-82EF-344C56581430}">
+  <dimension ref="A26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2576A46B-7317-4470-BDEF-7D6807DB2678}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1551b3744a113d45/Documents/UiPath/Robotic_Process_Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{7AC075F2-9F1F-41A4-B6F7-9FAF5584512D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8FDE3EDE-90C9-4953-94A0-C30805E1E811}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{7AC075F2-9F1F-41A4-B6F7-9FAF5584512D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{577A1929-24B5-47AE-AF9D-CBFF0C205098}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{3A28934A-972A-4B86-9E4B-9B9EF184AD0A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>3. For the days selected in step two, identify all emails which denote a change detected. Open each email and ensure the details within (e.g. each change is captured within the monthly tracker (findings tab).</t>
+    <t>"3. For the days selected in step two, identify all emails which denote a change detected. Open each email and ensure the details within (e.g. each change is captured within the monthly tracker (findings tab)."</t>
   </si>
 </sst>
 </file>
@@ -390,8 +390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4602C9DE-E17E-477F-82EF-344C56581430}">
   <dimension ref="A26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:I26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1551b3744a113d45/Documents/UiPath/Robotic_Process_Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{7AC075F2-9F1F-41A4-B6F7-9FAF5584512D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{577A1929-24B5-47AE-AF9D-CBFF0C205098}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{7AC075F2-9F1F-41A4-B6F7-9FAF5584512D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{99EED83C-91FE-4177-B2D4-13B0DA2E861B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{3A28934A-972A-4B86-9E4B-9B9EF184AD0A}"/>
   </bookViews>

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1551b3744a113d45/Documents/UiPath/Robotic_Process_Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{7AC075F2-9F1F-41A4-B6F7-9FAF5584512D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{99EED83C-91FE-4177-B2D4-13B0DA2E861B}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{7AC075F2-9F1F-41A4-B6F7-9FAF5584512D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CE17CC1B-58C9-4F4B-97D8-17823A161612}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{3A28934A-972A-4B86-9E4B-9B9EF184AD0A}"/>
   </bookViews>
@@ -34,9 +34,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>"3. For the days selected in step two, identify all emails which denote a change detected. Open each email and ensure the details within (e.g. each change is captured within the monthly tracker (findings tab)."</t>
+  </si>
+  <si>
+    <t>testps9023</t>
+  </si>
+  <si>
+    <t>testps01</t>
+  </si>
+  <si>
+    <t>magic_qq_appl</t>
+  </si>
+  <si>
+    <t>testps0324</t>
+  </si>
+  <si>
+    <t>Selection 1 (Date)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Total Changes</t>
   </si>
 </sst>
 </file>
@@ -72,8 +93,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,17 +410,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4602C9DE-E17E-477F-82EF-344C56581430}">
-  <dimension ref="A26"/>
+  <dimension ref="A26:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:H31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="1">
+        <v>43839</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D29" s="1"/>
+      <c r="H29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H31" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1551b3744a113d45/Documents/UiPath/Robotic_Process_Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{7AC075F2-9F1F-41A4-B6F7-9FAF5584512D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CE17CC1B-58C9-4F4B-97D8-17823A161612}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="8_{7AC075F2-9F1F-41A4-B6F7-9FAF5584512D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{498D97C9-FB10-499D-A5EC-A7B07BF95F00}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{3A28934A-972A-4B86-9E4B-9B9EF184AD0A}"/>
   </bookViews>
@@ -413,7 +413,7 @@
   <dimension ref="A26:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:G29"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dylan\Documents\UiPath\Step 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1551b3744a113d45/Documents/UiPath/Robotic_Process_Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C6700E-9ED4-485E-915C-CDE8176EA71B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{32C6700E-9ED4-485E-915C-CDE8176EA71B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{90697F08-89DD-4D45-A8A1-58BCA65FB81D}"/>
   <bookViews>
-    <workbookView xWindow="8856" yWindow="7668" windowWidth="10134" windowHeight="4692" xr2:uid="{4DB53C6E-694C-4D1D-9AFA-2743E35ADCBC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4DB53C6E-694C-4D1D-9AFA-2743E35ADCBC}"/>
   </bookViews>
   <sheets>
     <sheet name="REPORT" sheetId="2" r:id="rId1"/>
@@ -33,41 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>With Email</t>
-  </si>
-  <si>
-    <t>Exclusions</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Total Changes___</t>
-  </si>
-  <si>
-    <t>5. From the findings tab, identify all line items which do not have a corresponding ServiceNow ticket. For</t>
-  </si>
-  <si>
-    <t>each item, review all supporting conclusion evidence for appropriateness of change occuring without a</t>
-  </si>
-  <si>
-    <t>ServiceNow ticket (e.g. alternative documentation exists, false positive change, etc.).</t>
-  </si>
-  <si>
-    <t>a. The ServiceNow ticket names can be found in the 'Conclusion Evidence Name' column located in the Findings Tracker tab.</t>
-  </si>
-  <si>
-    <t>b. Access the Remediation and Justification Evidence for any changes at: \\MainFolder\\Remediation_or_Justification Evidence</t>
-  </si>
-  <si>
-    <t>Step 5 Review Sign off ___________</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -81,18 +47,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD3D3D3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -107,9 +67,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,76 +383,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B630ED6-F7F8-41F9-A2B4-5AC014E396EC}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
